--- a/output_1.xlsx
+++ b/output_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="10">
   <si>
     <t>Do you need to win in order to derive enjoyment from games and sports?</t>
   </si>
@@ -35,6 +35,15 @@
   </si>
   <si>
     <t>Are you impatient in general?</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
   </si>
 </sst>
 </file>
@@ -392,13 +401,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,8 +429,11 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -432,10 +444,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -444,27 +456,30 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -472,8 +487,11 @@
       <c r="H3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -498,8 +516,11 @@
       <c r="H4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -513,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -524,8 +545,11 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -545,13 +569,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>8</v>
       </c>
@@ -576,8 +603,11 @@
       <c r="H7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>9</v>
       </c>
@@ -588,7 +618,7 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -602,8 +632,11 @@
       <c r="H8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>10</v>
       </c>
@@ -628,8 +661,11 @@
       <c r="H9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>12</v>
       </c>
@@ -654,8 +690,11 @@
       <c r="H10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>14</v>
       </c>
@@ -663,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -678,10 +717,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>16</v>
       </c>
@@ -706,8 +748,11 @@
       <c r="H12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>18</v>
       </c>
@@ -715,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -732,8 +777,11 @@
       <c r="H13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>19</v>
       </c>
@@ -747,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -758,8 +806,11 @@
       <c r="H14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>20</v>
       </c>
@@ -767,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -784,8 +835,11 @@
       <c r="H15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>21</v>
       </c>
@@ -796,7 +850,7 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -810,8 +864,11 @@
       <c r="H16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>23</v>
       </c>
@@ -825,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -836,8 +893,11 @@
       <c r="H17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>25</v>
       </c>
@@ -851,7 +911,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -862,8 +922,11 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>29</v>
       </c>
@@ -874,7 +937,7 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -888,16 +951,19 @@
       <c r="H19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>31</v>
       </c>
       <c r="B20">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -914,8 +980,11 @@
       <c r="H20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>32</v>
       </c>
@@ -940,8 +1009,11 @@
       <c r="H21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>33</v>
       </c>
@@ -966,8 +1038,11 @@
       <c r="H22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>34</v>
       </c>
@@ -990,10 +1065,13 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>2</v>
+      </c>
+      <c r="I23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>35</v>
       </c>
@@ -1010,16 +1088,19 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>36</v>
       </c>
@@ -1044,8 +1125,11 @@
       <c r="H25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>37</v>
       </c>
@@ -1070,8 +1154,11 @@
       <c r="H26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>38</v>
       </c>
@@ -1096,16 +1183,19 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>39</v>
       </c>
       <c r="B28">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1122,8 +1212,11 @@
       <c r="H28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>40</v>
       </c>
@@ -1134,7 +1227,7 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1148,8 +1241,11 @@
       <c r="H29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>41</v>
       </c>
@@ -1174,13 +1270,16 @@
       <c r="H30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
         <v>42</v>
       </c>
       <c r="B31">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1189,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1198,10 +1297,13 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>2</v>
+      </c>
+      <c r="I31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>43</v>
       </c>
@@ -1212,10 +1314,10 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E32">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -1226,8 +1328,11 @@
       <c r="H32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1">
         <v>45</v>
       </c>
@@ -1250,10 +1355,13 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>2</v>
+      </c>
+      <c r="I33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1">
         <v>46</v>
       </c>
@@ -1278,8 +1386,11 @@
       <c r="H34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1">
         <v>47</v>
       </c>
@@ -1304,13 +1415,16 @@
       <c r="H35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1">
         <v>48</v>
       </c>
       <c r="B36">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1319,19 +1433,22 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G36">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H36">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>2</v>
+      </c>
+      <c r="I36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1">
         <v>49</v>
       </c>
@@ -1356,8 +1473,11 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1">
         <v>50</v>
       </c>
@@ -1377,13 +1497,16 @@
         <v>1</v>
       </c>
       <c r="G38">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H38">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>2</v>
+      </c>
+      <c r="I38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1">
         <v>56</v>
       </c>
@@ -1397,7 +1520,7 @@
         <v>1</v>
       </c>
       <c r="E39">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -1408,8 +1531,11 @@
       <c r="H39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1">
         <v>59</v>
       </c>
@@ -1429,13 +1555,16 @@
         <v>1</v>
       </c>
       <c r="G40">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1">
         <v>62</v>
       </c>
@@ -1460,8 +1589,11 @@
       <c r="H41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1">
         <v>65</v>
       </c>
@@ -1486,8 +1618,11 @@
       <c r="H42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1">
         <v>72</v>
       </c>
@@ -1501,7 +1636,7 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -1512,8 +1647,11 @@
       <c r="H43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1">
         <v>73</v>
       </c>
@@ -1538,8 +1676,11 @@
       <c r="H44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1">
         <v>74</v>
       </c>
@@ -1547,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="C45">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1559,13 +1700,16 @@
         <v>1</v>
       </c>
       <c r="G45">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1">
         <v>75</v>
       </c>
@@ -1590,8 +1734,11 @@
       <c r="H46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1">
         <v>76</v>
       </c>
@@ -1605,10 +1752,10 @@
         <v>1</v>
       </c>
       <c r="E47">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F47">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -1616,8 +1763,11 @@
       <c r="H47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1">
         <v>77</v>
       </c>
@@ -1640,10 +1790,13 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>2</v>
+      </c>
+      <c r="I48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1">
         <v>78</v>
       </c>
@@ -1660,21 +1813,24 @@
         <v>1</v>
       </c>
       <c r="F49">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G49">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1">
         <v>79</v>
       </c>
       <c r="B50">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1689,18 +1845,21 @@
         <v>1</v>
       </c>
       <c r="G50">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1">
         <v>80</v>
       </c>
       <c r="B51">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -1720,8 +1879,11 @@
       <c r="H51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1">
         <v>81</v>
       </c>
@@ -1729,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -1744,24 +1906,27 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>2</v>
+      </c>
+      <c r="I52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1">
         <v>82</v>
       </c>
       <c r="B53">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E53">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -1770,10 +1935,13 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>2</v>
+      </c>
+      <c r="I53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1">
         <v>83</v>
       </c>
@@ -1793,13 +1961,16 @@
         <v>1</v>
       </c>
       <c r="G54">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="I54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1">
         <v>86</v>
       </c>
@@ -1807,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="C55">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -1819,13 +1990,16 @@
         <v>1</v>
       </c>
       <c r="G55">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="I55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1">
         <v>87</v>
       </c>
@@ -1845,24 +2019,27 @@
         <v>1</v>
       </c>
       <c r="G56">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="I56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1">
         <v>88</v>
       </c>
       <c r="B57">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -1876,8 +2053,11 @@
       <c r="H57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1">
         <v>89</v>
       </c>
@@ -1885,7 +2065,7 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -1897,13 +2077,16 @@
         <v>1</v>
       </c>
       <c r="G58">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="I58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1">
         <v>90</v>
       </c>
@@ -1914,7 +2097,7 @@
         <v>1</v>
       </c>
       <c r="D59">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1923,39 +2106,45 @@
         <v>1</v>
       </c>
       <c r="G59">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="I59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1">
         <v>91</v>
       </c>
       <c r="B60">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
       <c r="F60">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G60">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H60">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>2</v>
+      </c>
+      <c r="I60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1">
         <v>92</v>
       </c>
@@ -1966,22 +2155,25 @@
         <v>1</v>
       </c>
       <c r="D61">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E61">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F61">
         <v>1</v>
       </c>
       <c r="G61">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="I61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1">
         <v>93</v>
       </c>
@@ -1995,10 +2187,10 @@
         <v>1</v>
       </c>
       <c r="E62">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F62">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -2006,16 +2198,19 @@
       <c r="H62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="I62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1">
         <v>95</v>
       </c>
       <c r="B63">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="C63">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -2030,10 +2225,13 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>2</v>
+      </c>
+      <c r="I63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1">
         <v>96</v>
       </c>
@@ -2058,8 +2256,11 @@
       <c r="H64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="I64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1">
         <v>97</v>
       </c>
@@ -2084,8 +2285,11 @@
       <c r="H65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="I65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1">
         <v>98</v>
       </c>
@@ -2110,13 +2314,16 @@
       <c r="H66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="I66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1">
         <v>99</v>
       </c>
       <c r="B67">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -2131,13 +2338,16 @@
         <v>1</v>
       </c>
       <c r="G67">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="I67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1">
         <v>100</v>
       </c>
@@ -2162,25 +2372,28 @@
       <c r="H68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="I68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1">
         <v>101</v>
       </c>
       <c r="B69">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="C69">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D69">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -2188,8 +2401,11 @@
       <c r="H69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="I69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1">
         <v>103</v>
       </c>
@@ -2209,10 +2425,13 @@
         <v>1</v>
       </c>
       <c r="G70">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H70">
         <v>1</v>
+      </c>
+      <c r="I70" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
